--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Inversini\Dropbox\BTI7081_black\CS1_Task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Inversini\Desktop\BFH\develop\SEngineering\ch.bfh.bti7081.s2013.black\ch.bfh.bti7081.s2013.black\doc\taskRepository\CS1\Task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -157,9 +157,6 @@
     <t>4h</t>
   </si>
   <si>
-    <t>in work</t>
-  </si>
-  <si>
     <t>Datenbank mit Daten füllen</t>
   </si>
   <si>
@@ -188,6 +185,18 @@
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>in arbeit</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>8h</t>
   </si>
 </sst>
 </file>
@@ -736,7 +745,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,8 +823,14 @@
       <c r="H2" t="s">
         <v>44</v>
       </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -843,8 +858,14 @@
       <c r="H3" t="s">
         <v>44</v>
       </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -864,16 +885,22 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
         <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -884,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -893,16 +920,22 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -913,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -922,16 +955,22 @@
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -942,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -954,13 +993,19 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
-        <v>49</v>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -197,6 +197,30 @@
   </si>
   <si>
     <t>8h</t>
+  </si>
+  <si>
+    <t>Update Datenkban</t>
+  </si>
+  <si>
+    <t>Datenbank ist kein XML, immoment Java Derby. Eventuell umsetzung auf MYSQL (eigener DB Server)</t>
+  </si>
+  <si>
+    <t>Update Datenbankastratkion</t>
+  </si>
+  <si>
+    <t>Datenbankabstratkion sollten wenn möglich über Prozduren (stored) möglich sein, dies in einem weiteren Schritt später)</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Setzen von Viewport</t>
+  </si>
+  <si>
+    <t>Für die Anzeige auf Mobilegeräten (skalierung GUI)</t>
   </si>
 </sst>
 </file>
@@ -252,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -278,6 +302,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -742,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +778,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
@@ -773,7 +798,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -808,7 +833,7 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
@@ -843,7 +868,7 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
@@ -878,7 +903,7 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
@@ -913,7 +938,7 @@
       <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
@@ -948,7 +973,7 @@
       <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" t="s">
@@ -983,7 +1008,7 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
@@ -1007,6 +1032,99 @@
       <c r="K7" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +172,6 @@
     <t>GUI erstellen für Klientendaten</t>
   </si>
   <si>
-    <t>GUI erstellen für Klientekrankengeschichte</t>
-  </si>
-  <si>
     <t>Julien</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>erledigt</t>
   </si>
   <si>
-    <t>in arbeit</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -221,6 +215,36 @@
   </si>
   <si>
     <t>Für die Anzeige auf Mobilegeräten (skalierung GUI)</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Basierend auf Vaadin-Framework die Navigation implementieren.</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>State Pattern</t>
+  </si>
+  <si>
+    <t>Anpassen der Navigation für State Pattern</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>GUI erstellen für Klientendaten / History</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Styling, Mobile Optimierung</t>
+  </si>
+  <si>
+    <t>10h</t>
   </si>
 </sst>
 </file>
@@ -770,14 +794,14 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -855,7 +879,7 @@
         <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -884,13 +908,13 @@
         <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -910,22 +934,22 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -945,22 +969,22 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -971,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -980,22 +1004,22 @@
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1024,109 +1048,214 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.9</v>
+      <c r="A10" s="13">
+        <v>2.2000000000000002</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
       </c>
       <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
         <v>44</v>
       </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
       <c r="K10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.8</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.9</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
     </row>
   </sheetData>
+  <sortState ref="A2:K13">
+    <sortCondition ref="B2:B13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -9,18 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint1 Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint2 Backlog" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint1 Backlog'!$A$1:$K$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint2 Backlog'!$A$1:$K$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -193,18 +198,6 @@
     <t>8h</t>
   </si>
   <si>
-    <t>Update Datenkban</t>
-  </si>
-  <si>
-    <t>Datenbank ist kein XML, immoment Java Derby. Eventuell umsetzung auf MYSQL (eigener DB Server)</t>
-  </si>
-  <si>
-    <t>Update Datenbankastratkion</t>
-  </si>
-  <si>
-    <t>Datenbankabstratkion sollten wenn möglich über Prozduren (stored) möglich sein, dies in einem weiteren Schritt später)</t>
-  </si>
-  <si>
     <t>16h</t>
   </si>
   <si>
@@ -245,6 +238,81 @@
   </si>
   <si>
     <t>10h</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Update Datenkbank</t>
+  </si>
+  <si>
+    <t>Update Datenbankabstratkion</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>Wechseln der Datenbank von Derby auf MYSQL, externer Hoster (GIT Issue)</t>
+  </si>
+  <si>
+    <t>Datenbankabstratkion sollten wenn möglich über Prozduren (stored) möglich sein. Weiter auch Anpassungen wegen Punkt 2.10</t>
+  </si>
+  <si>
+    <t>Installations Dokumentation</t>
+  </si>
+  <si>
+    <t>Doku erstellen für Dozenten, How-To für Installation, Build, etc</t>
+  </si>
+  <si>
+    <t>in work</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>Update Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Updaten des Klassendiagramms bezogen auf den behandelten Use-Case</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>Update Domaindiagramm</t>
+  </si>
+  <si>
+    <t>Updaten des Domainmodels</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>Update Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm anpassen Aufgrund des behandelten Use-Cases</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>Refactoring Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgrund der neuen Anforderungen, Dokumentation des Codes benötigt es eine Überarbeitung der bereits geschriebenen Klassen, Interfaces, Funktionen etc. </t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>Update Diary</t>
   </si>
 </sst>
 </file>
@@ -300,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -326,7 +394,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -793,15 +869,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -813,7 +887,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -848,8 +922,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.1000000000000001</v>
+      <c r="A2" s="14">
+        <v>2.1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -883,8 +957,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.2</v>
+      <c r="A3" s="14">
+        <v>2.2000000000000002</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -918,8 +992,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.3</v>
+      <c r="A4" s="14">
+        <v>2.2999999999999998</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -953,8 +1027,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.4</v>
+      <c r="A5" s="14">
+        <v>2.4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -988,14 +1062,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.5</v>
+      <c r="A6" s="14">
+        <v>2.5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>40</v>
@@ -1016,15 +1090,15 @@
         <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.6</v>
+      <c r="A7" s="14">
+        <v>2.6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1058,17 +1132,17 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" s="14">
+        <v>2.7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -1086,24 +1160,24 @@
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.1</v>
+      <c r="A9" s="14">
+        <v>2.8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1115,30 +1189,30 @@
         <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>2.2000000000000002</v>
+      <c r="A10" s="15">
+        <v>2.9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -1150,7 +1224,7 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -1162,101 +1236,343 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.7</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.8</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.9</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K14"/>
   <sortState ref="A2:K13">
     <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2.12</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:K5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Inversini\Desktop\BFH\develop\SEngineering\ch.bfh.bti7081.s2013.black\ch.bfh.bti7081.s2013.black\doc\taskRepository\CS1\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="160" windowWidth="28100" windowHeight="15740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint1 Backlog'!$A$1:$K$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint2 Backlog'!$A$1:$K$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -463,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,7 +498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,18 +713,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="56">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="42">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="70">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -854,14 +854,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -871,22 +876,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -921,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="14">
         <v>2.1</v>
       </c>
@@ -956,7 +961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>2.2000000000000002</v>
       </c>
@@ -991,7 +996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>2.2999999999999998</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="14">
         <v>2.4</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>2.5</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>2.6</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>2.7</v>
       </c>
@@ -1166,7 +1171,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>2.8</v>
       </c>
@@ -1201,7 +1206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="15">
         <v>2.9</v>
       </c>
@@ -1236,10 +1241,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="15"/>
     </row>
   </sheetData>
@@ -1248,34 +1253,39 @@
     <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="15" t="s">
         <v>71</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28">
       <c r="A3" s="14">
         <v>2.11</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>2.12</v>
       </c>
@@ -1397,7 +1407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="15" t="s">
         <v>74</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
         <v>84</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
         <v>87</v>
       </c>
@@ -1513,7 +1523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28">
       <c r="A9" s="14" t="s">
         <v>90</v>
       </c>
@@ -1538,11 +1548,17 @@
       <c r="H9" t="s">
         <v>56</v>
       </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
       <c r="K9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
         <v>94</v>
       </c>
@@ -1568,11 +1584,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:K5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="160" windowWidth="28100" windowHeight="15740" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="156" windowWidth="28104" windowHeight="12816" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Doku erstellen für Dozenten, How-To für Installation, Build, etc</t>
   </si>
   <si>
-    <t>in work</t>
-  </si>
-  <si>
     <t>2.14</t>
   </si>
   <si>
@@ -313,6 +310,12 @@
   </si>
   <si>
     <t>Update Diary</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -713,18 +716,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="56">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -776,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -802,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="70">
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -828,7 +831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -854,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
@@ -874,24 +877,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -926,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>2.1</v>
       </c>
@@ -961,7 +964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2.2000000000000002</v>
       </c>
@@ -996,7 +999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2.2999999999999998</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2.4</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2.5</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>2.6</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>2.7</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>2.8</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2.9</v>
       </c>
@@ -1241,10 +1244,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
     </row>
   </sheetData>
@@ -1267,25 +1270,25 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>71</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2.11</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2.12</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -1432,25 +1435,31 @@
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
       <c r="K5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -1462,24 +1471,24 @@
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1494,21 +1503,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1523,21 +1532,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" t="s">
         <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1558,21 +1567,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>

--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Inversini\Desktop\BFH\develop\SEngineering\ch.bfh.bti7081.s2013.black\ch.bfh.bti7081.s2013.black\doc\taskRepository\CS1\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="156" windowWidth="28104" windowHeight="12816" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="150" windowWidth="28110" windowHeight="12810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1 Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint2 Backlog" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint3 Backlog" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint1 Backlog'!$A$1:$K$14</definedName>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +126,6 @@
     <t>80h</t>
   </si>
   <si>
-    <t>aktueller Sprint (1, bis 17.05.2013)</t>
-  </si>
-  <si>
     <t>Datenkbank erstellen</t>
   </si>
   <si>
@@ -315,7 +318,10 @@
     <t>done</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>aktueller Sprint (1,2,3 bis 17.05.2013)</t>
+  </si>
+  <si>
+    <t>2.11</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,6 +412,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -466,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,7 +508,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,21 +720,21 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -753,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -779,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -805,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -831,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -857,9 +864,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -877,24 +884,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -929,7 +936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>2.1</v>
       </c>
@@ -937,34 +944,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2.2000000000000002</v>
       </c>
@@ -972,34 +979,34 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2.2999999999999998</v>
       </c>
@@ -1007,34 +1014,34 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2.4</v>
       </c>
@@ -1042,34 +1049,34 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2.5</v>
       </c>
@@ -1077,34 +1084,34 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2.6</v>
       </c>
@@ -1112,34 +1119,34 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2.7</v>
       </c>
@@ -1147,34 +1154,34 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>63</v>
-      </c>
       <c r="K8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2.8</v>
       </c>
@@ -1182,34 +1189,34 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2.9</v>
       </c>
@@ -1217,37 +1224,37 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
     </row>
   </sheetData>
@@ -1269,26 +1276,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1323,36 +1330,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
-        <v>57</v>
+      <c r="J2" t="s">
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2.11</v>
       </c>
@@ -1360,28 +1373,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2.12</v>
       </c>
@@ -1389,218 +1402,403 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
         <v>94</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2.12</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="150" windowWidth="28110" windowHeight="12810" activeTab="3"/>
+    <workbookView xWindow="900" yWindow="150" windowWidth="28110" windowHeight="12810" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1 Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint2 Backlog" sheetId="4" r:id="rId3"/>
     <sheet name="Sprint3 Backlog" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint4 Backlog" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint1 Backlog'!$A$1:$K$14</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -322,6 +323,69 @@
   </si>
   <si>
     <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>Clienthistory erfassen</t>
+  </si>
+  <si>
+    <t>GUI, DB, Businesslogic</t>
+  </si>
+  <si>
+    <t>in work</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>Test erfassen für 2.19</t>
+  </si>
+  <si>
+    <t>Tests schreiben für ein TDD für Punkt 2.19</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>Junit testing</t>
+  </si>
+  <si>
+    <t>Code analysieren mit Junit test</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Daniel, Michael</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>Code analysis</t>
+  </si>
+  <si>
+    <t>Code analysieren mit Google CodePro Analytix</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>History zu Clienten hinzufügen (DB)</t>
+  </si>
+  <si>
+    <t>History zu Clienten hinzufügen (GUI)</t>
+  </si>
+  <si>
+    <t>DB, Businesslogic</t>
   </si>
 </sst>
 </file>
@@ -377,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -413,6 +477,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -719,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1650,7 +1715,244 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +2017,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
@@ -1725,8 +2027,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2.12</v>
+      <c r="A3" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B3">
         <v>3</v>

--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Inversini\Desktop\BFH\develop\SEngineering\ch.bfh.bti7081.s2013.black\ch.bfh.bti7081.s2013.black\doc\taskRepository\CS1\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="150" windowWidth="28110" windowHeight="12810" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="900" yWindow="156" windowWidth="23256" windowHeight="12816" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -538,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,15 +783,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -825,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -851,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -877,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -903,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -929,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>95</v>
       </c>
@@ -951,22 +946,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>2.1</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2.2000000000000002</v>
       </c>
@@ -1071,7 +1066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2.2999999999999998</v>
       </c>
@@ -1106,7 +1101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>2.4</v>
       </c>
@@ -1141,7 +1136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2.5</v>
       </c>
@@ -1176,7 +1171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>2.6</v>
       </c>
@@ -1211,7 +1206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2.7</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>2.8</v>
       </c>
@@ -1281,7 +1276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2.9</v>
       </c>
@@ -1316,10 +1311,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
     </row>
   </sheetData>
@@ -1342,25 +1337,25 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K4"/>
+      <selection activeCell="G19" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1425,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2.11</v>
       </c>
@@ -1459,7 +1454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2.12</v>
       </c>
@@ -1488,7 +1483,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -1523,7 +1518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -1558,7 +1553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>82</v>
       </c>
@@ -1593,7 +1588,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>88</v>
       </c>
@@ -1663,7 +1658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
@@ -1715,18 +1710,18 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>98</v>
       </c>
@@ -1786,11 +1781,14 @@
       <c r="H2" t="s">
         <v>43</v>
       </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
       <c r="K2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>102</v>
       </c>
@@ -1815,11 +1813,17 @@
       <c r="H3" t="s">
         <v>54</v>
       </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
       <c r="K3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>105</v>
       </c>
@@ -1844,11 +1848,14 @@
       <c r="H4" t="s">
         <v>55</v>
       </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
       <c r="K4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>110</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>114</v>
       </c>
@@ -1906,40 +1913,40 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
     </row>
   </sheetData>
@@ -1955,14 +1962,14 @@
       <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>96</v>
       </c>
@@ -2026,7 +2033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>97</v>
       </c>
@@ -2055,49 +2062,49 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Inversini\Desktop\BFH\develop\SEngineering\ch.bfh.bti7081.s2013.black\ch.bfh.bti7081.s2013.black\doc\taskRepository\CS1\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="156" windowWidth="23256" windowHeight="12816" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="900" yWindow="150" windowWidth="23250" windowHeight="12810" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -533,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,15 +788,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -820,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -846,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -872,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -898,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -924,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>95</v>
       </c>
@@ -946,22 +951,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>2.1</v>
       </c>
@@ -1031,7 +1036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2.2000000000000002</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2.2999999999999998</v>
       </c>
@@ -1101,7 +1106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2.4</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2.5</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2.6</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2.7</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2.8</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2.9</v>
       </c>
@@ -1311,10 +1316,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
     </row>
   </sheetData>
@@ -1340,22 +1345,22 @@
       <selection activeCell="G19" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2.11</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2.12</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -1518,7 +1523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>82</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
@@ -1623,7 +1628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>88</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
@@ -1713,15 +1718,15 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>98</v>
       </c>
@@ -1782,13 +1787,13 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>102</v>
       </c>
@@ -1820,10 +1825,10 @@
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>105</v>
       </c>
@@ -1849,13 +1854,13 @@
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>110</v>
       </c>
@@ -1880,11 +1885,14 @@
       <c r="H5" t="s">
         <v>43</v>
       </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
       <c r="K5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>114</v>
       </c>
@@ -1913,40 +1921,40 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
     </row>
   </sheetData>
@@ -1962,14 +1970,14 @@
       <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>96</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>97</v>
       </c>
@@ -2062,49 +2070,49 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
+++ b/ch.bfh.bti7081.s2013.black/doc/taskRepository/CS1/Task10/scrum_ProductSprintBacklog_Black.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Inversini\Desktop\BFH\develop\SEngineering\ch.bfh.bti7081.s2013.black\ch.bfh.bti7081.s2013.black\doc\taskRepository\CS1\Task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="150" windowWidth="23250" windowHeight="12810" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="900" yWindow="160" windowWidth="23260" windowHeight="12820" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -335,9 +330,6 @@
   </si>
   <si>
     <t>GUI, DB, Businesslogic</t>
-  </si>
-  <si>
-    <t>in work</t>
   </si>
   <si>
     <t>2.20</t>
@@ -538,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,18 +780,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -825,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="56">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -851,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="42">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -877,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="70">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -903,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -929,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="12" t="s">
         <v>95</v>
       </c>
@@ -951,22 +943,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="14">
         <v>2.1</v>
       </c>
@@ -1036,7 +1028,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>2.2000000000000002</v>
       </c>
@@ -1071,7 +1063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>2.2999999999999998</v>
       </c>
@@ -1106,7 +1098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="14">
         <v>2.4</v>
       </c>
@@ -1141,7 +1133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>2.5</v>
       </c>
@@ -1176,7 +1168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>2.6</v>
       </c>
@@ -1211,7 +1203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>2.7</v>
       </c>
@@ -1246,7 +1238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>2.8</v>
       </c>
@@ -1281,7 +1273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="15">
         <v>2.9</v>
       </c>
@@ -1316,10 +1308,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="15"/>
     </row>
   </sheetData>
@@ -1342,25 +1334,25 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G18:G19"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="15" t="s">
         <v>70</v>
       </c>
@@ -1430,7 +1422,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28">
       <c r="A3" s="14">
         <v>2.11</v>
       </c>
@@ -1459,7 +1451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>2.12</v>
       </c>
@@ -1488,7 +1480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -1523,7 +1515,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -1558,7 +1550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
         <v>82</v>
       </c>
@@ -1593,7 +1585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
         <v>85</v>
       </c>
@@ -1628,7 +1620,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28">
       <c r="A9" s="14" t="s">
         <v>88</v>
       </c>
@@ -1663,7 +1655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
         <v>92</v>
       </c>
@@ -1701,7 +1693,7 @@
   </sheetData>
   <autoFilter ref="A1:K5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1714,19 +1706,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="17" t="s">
         <v>98</v>
       </c>
@@ -1772,10 +1762,10 @@
         <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -1786,31 +1776,31 @@
       <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -1828,24 +1818,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1856,28 +1846,31 @@
       <c r="I4" t="s">
         <v>52</v>
       </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1886,15 +1879,18 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1903,10 +1899,10 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1917,48 +1913,56 @@
       <c r="H6" t="s">
         <v>43</v>
       </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
       <c r="K6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1970,14 +1974,14 @@
       <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28">
       <c r="A2" s="16" t="s">
         <v>96</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="15" t="s">
         <v>97</v>
       </c>
@@ -2070,52 +2074,57 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>